--- a/data/TC001.xlsx
+++ b/data/TC001.xlsx
@@ -16,18 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>BrandName</t>
-  </si>
-  <si>
-    <t>ASICS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>xpath</t>
   </si>
   <si>
-    <t>//*[contains(@class,'search2 ui-autocomplete-input')]</t>
+    <t>//h4[contains(text(),'Información Útil')]</t>
   </si>
 </sst>
 </file>
@@ -78,9 +72,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,27 +381,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
